--- a/导入学生模板.xlsx
+++ b/导入学生模板.xlsx
@@ -1,84 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dening_project\outSourcing_proj\hjy_projects\hjy_school_proj\code\smart_school_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F29EE-AF33-4643-889F-EDCC3546CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C573546-BD17-4986-829C-3AC9155F6569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2030" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>seat_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
   <si>
     <t>A-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘婷婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赵子豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-3</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>A-4</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>A-5</t>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
+    <t>A-6</t>
+  </si>
+  <si>
+    <t>张晓明</t>
+  </si>
+  <si>
+    <t>A-7</t>
+  </si>
+  <si>
+    <t>林小雅琪</t>
+  </si>
+  <si>
+    <t>A-8</t>
+  </si>
+  <si>
+    <t>陈思瑶</t>
+  </si>
+  <si>
+    <t>B-1</t>
+  </si>
+  <si>
+    <t>李娜</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF06071F"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -103,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -165,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -200,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -375,23 +420,18 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
@@ -401,15 +441,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -429,8 +469,85 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>